--- a/00_management/反復3/WBSガントチャート_反復3.xlsx
+++ b/00_management/反復3/WBSガントチャート_反復3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="258" documentId="11_06AD8BA54B8FBE2912825DFF753FE6726EDB0332" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66FBE069-46FF-4CC7-8AB2-2C8BBCE0791D}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="11_06AD8BA54B8FBE2912825DFF753FE6726EDB0332" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AFFBEC02-8C5A-4FA3-B6A8-0C9F579F0735}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="8475" windowHeight="4710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$112</definedName>
     <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$112</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -160,6 +160,9 @@
     <t>金</t>
   </si>
   <si>
+    <t>月</t>
+  </si>
+  <si>
     <t>1日目</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
@@ -235,6 +238,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -249,6 +258,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>堀内</t>
+  </si>
+  <si>
     <t>b</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -257,8 +269,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>大黒、小森谷、酒井、堀内、矢崎</t>
+  </si>
+  <si>
     <t>レビュー</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー参加</t>
   </si>
   <si>
     <t>レビュー指摘修正</t>
@@ -285,6 +303,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>新規作成</t>
+  </si>
+  <si>
+    <t>大黒</t>
+  </si>
+  <si>
     <t>B.要求分析</t>
     <rPh sb="2" eb="4">
       <t>ヨウキュウ</t>
@@ -326,6 +350,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>小森谷</t>
+  </si>
+  <si>
     <t>d</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -337,6 +364,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>酒井、堀内</t>
+  </si>
+  <si>
     <t>レビュー指摘修正＆内部レビュー</t>
     <rPh sb="4" eb="6">
       <t>シテキ</t>
@@ -368,6 +398,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>大黒、小森谷</t>
+  </si>
+  <si>
     <t>シーケンス図</t>
     <rPh sb="5" eb="6">
       <t>ズ</t>
@@ -375,6 +408,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>酒井、堀内、矢崎</t>
+  </si>
+  <si>
+    <t>酒井</t>
+  </si>
+  <si>
     <t>D.設計</t>
     <rPh sb="2" eb="4">
       <t>セッケイ</t>
@@ -389,6 +428,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>矢崎</t>
+  </si>
+  <si>
     <t>E.実装</t>
     <rPh sb="2" eb="4">
       <t>ジッソウ</t>
@@ -400,8 +442,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>大黒、小森谷、酒井</t>
+  </si>
+  <si>
     <t>テストコード</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堀内、矢崎</t>
   </si>
   <si>
     <t>F.テスト</t>
@@ -474,54 +522,6 @@
       <t>ヒョウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>レビュー参加</t>
-  </si>
-  <si>
-    <t>新規作成</t>
-  </si>
-  <si>
-    <t>大黒、小森谷、酒井、堀内、矢崎</t>
-  </si>
-  <si>
-    <t>完了</t>
-  </si>
-  <si>
-    <t>堀内</t>
-  </si>
-  <si>
-    <t>大黒、小森谷</t>
-  </si>
-  <si>
-    <t>大黒、小森谷、酒井</t>
-  </si>
-  <si>
-    <t>酒井、堀内</t>
-  </si>
-  <si>
-    <t>小森谷</t>
-  </si>
-  <si>
-    <t>酒井、堀内、矢崎</t>
-  </si>
-  <si>
-    <t>矢崎</t>
-  </si>
-  <si>
-    <t>堀内、矢崎</t>
-  </si>
-  <si>
-    <t>大黒</t>
-  </si>
-  <si>
-    <t>酒井</t>
   </si>
   <si>
     <t>予定</t>
@@ -1493,12 +1493,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1508,194 +1547,155 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2193,10 +2193,10 @@
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -2215,121 +2215,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="81" t="s">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="111">
+      <c r="L1" s="83">
         <v>43994</v>
       </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="111">
+      <c r="M1" s="84"/>
+      <c r="N1" s="83">
         <v>43997</v>
       </c>
-      <c r="O1" s="112"/>
+      <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="115" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="120"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="82"/>
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="117"/>
-      <c r="N3" s="116" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="117"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="92"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="86"/>
+      <c r="A5" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -2351,25 +2351,25 @@
       <c r="O5" s="27"/>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="87"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="47">
         <f>SUM(L8,L24,L44,L60,L78,L86)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="47">
         <f t="shared" ref="L6:N6" si="1">SUM(M8,M24,M44,M60,M78,M86)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="47">
         <f t="shared" si="1"/>
@@ -2382,17 +2382,17 @@
       <c r="O6" s="47"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="A7" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -2418,25 +2418,25 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" ref="L8:O8" si="3">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="29">
         <f t="shared" si="3"/>
@@ -2452,21 +2452,21 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="12" customHeight="1">
-      <c r="A9" s="55">
+      <c r="A9" s="68">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="53"/>
+      <c r="B9" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="54"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2480,13 +2480,13 @@
       <c r="O9" s="31"/>
     </row>
     <row r="10" spans="1:15" ht="12" customHeight="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="54"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2500,27 +2500,27 @@
       <c r="O10" s="32"/>
     </row>
     <row r="11" spans="1:15" ht="12" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="59" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="65"/>
+      <c r="F11" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="58"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="J11" s="8">
         <v>1</v>
@@ -2537,13 +2537,13 @@
       <c r="O11" s="31"/>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="58"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2552,35 +2552,37 @@
       <c r="J12" s="52"/>
       <c r="K12" s="10">
         <f>SUM(L12:O12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="41"/>
+        <v>0.25</v>
+      </c>
+      <c r="L12" s="41">
+        <v>0.25</v>
+      </c>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
     </row>
     <row r="13" spans="1:15" ht="12" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="57" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J13" s="8">
         <v>5</v>
@@ -2596,13 +2598,13 @@
       <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="58"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2611,27 +2613,29 @@
       <c r="J14" s="52"/>
       <c r="K14" s="10">
         <f>SUM(L14:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="41">
+        <v>2</v>
+      </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
     </row>
     <row r="15" spans="1:15" ht="12" customHeight="1">
-      <c r="A15" s="55">
+      <c r="A15" s="68">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="53"/>
+      <c r="B15" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2645,13 +2649,13 @@
       <c r="O15" s="31"/>
     </row>
     <row r="16" spans="1:15" ht="12" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="54"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2665,25 +2669,25 @@
       <c r="O16" s="32"/>
     </row>
     <row r="17" spans="1:15" ht="12" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="65"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J17" s="8">
         <v>5</v>
@@ -2699,13 +2703,13 @@
       <c r="O17" s="31"/>
     </row>
     <row r="18" spans="1:15" ht="12" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2714,33 +2718,35 @@
       <c r="J18" s="52"/>
       <c r="K18" s="10">
         <f>SUM(L18:O18)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="41"/>
+        <v>0.25</v>
+      </c>
+      <c r="L18" s="41">
+        <v>0.25</v>
+      </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
     </row>
     <row r="19" spans="1:15" ht="12" customHeight="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="65"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="56"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J19" s="8">
         <v>5</v>
@@ -2756,13 +2762,13 @@
       <c r="O19" s="31"/>
     </row>
     <row r="20" spans="1:15" ht="12" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="58"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2771,33 +2777,35 @@
       <c r="J20" s="52"/>
       <c r="K20" s="10">
         <f>SUM(L20:O20)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="41"/>
+        <v>0.25</v>
+      </c>
+      <c r="L20" s="41">
+        <v>0.25</v>
+      </c>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
     </row>
     <row r="21" spans="1:15" ht="12" customHeight="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="65"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
@@ -2814,13 +2822,13 @@
       <c r="O21" s="31"/>
     </row>
     <row r="22" spans="1:15" ht="12" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="58"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -2829,27 +2837,29 @@
       <c r="J22" s="52"/>
       <c r="K22" s="10">
         <f>SUM(L22:O22)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="41"/>
+        <v>0.25</v>
+      </c>
+      <c r="L22" s="41">
+        <v>0.25</v>
+      </c>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
     </row>
     <row r="23" spans="1:15" ht="12" customHeight="1">
-      <c r="A23" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="71"/>
+      <c r="A23" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="77"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -2875,21 +2885,21 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="12" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="72"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="115"/>
       <c r="H24" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="42">
         <f t="shared" ref="L24:O24" si="5">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
@@ -2897,7 +2907,7 @@
       </c>
       <c r="M24" s="36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N24" s="36">
         <f t="shared" si="5"/>
@@ -2909,19 +2919,19 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="12" customHeight="1">
-      <c r="A25" s="55">
+      <c r="A25" s="68">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="53"/>
+      <c r="B25" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="60"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -2935,13 +2945,13 @@
       <c r="O25" s="31"/>
     </row>
     <row r="26" spans="1:15" ht="12" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="54"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -2955,19 +2965,19 @@
       <c r="O26" s="32"/>
     </row>
     <row r="27" spans="1:15" ht="12" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="65"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="56"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -2984,13 +2994,13 @@
       <c r="O27" s="31"/>
     </row>
     <row r="28" spans="1:15" ht="12" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="58"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3007,19 +3017,19 @@
       <c r="O28" s="32"/>
     </row>
     <row r="29" spans="1:15" ht="12" customHeight="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="65"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="56"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3036,13 +3046,13 @@
       <c r="O29" s="31"/>
     </row>
     <row r="30" spans="1:15" ht="12" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="58"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3059,25 +3069,25 @@
       <c r="O30" s="32"/>
     </row>
     <row r="31" spans="1:15" ht="12" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="59" t="s">
+      <c r="A31" s="68"/>
+      <c r="B31" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="65"/>
+      <c r="C31" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="56"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J31" s="8">
         <v>1</v>
@@ -3094,13 +3104,13 @@
       <c r="O31" s="31"/>
     </row>
     <row r="32" spans="1:15" ht="12" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="58"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3109,33 +3119,35 @@
       <c r="J32" s="52"/>
       <c r="K32" s="10">
         <f>SUM(L32:O32)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
+      <c r="M32" s="49">
+        <v>0.25</v>
+      </c>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
     </row>
     <row r="33" spans="1:15" ht="12" customHeight="1">
-      <c r="A33" s="55"/>
-      <c r="B33" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="65"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="56"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J33" s="8">
         <v>2</v>
@@ -3152,13 +3164,13 @@
       <c r="O33" s="31"/>
     </row>
     <row r="34" spans="1:15" ht="12" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="58"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3167,27 +3179,29 @@
       <c r="J34" s="52"/>
       <c r="K34" s="10">
         <f>SUM(L34:O34)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L34" s="41"/>
-      <c r="M34" s="32"/>
+      <c r="M34" s="32">
+        <v>0.5</v>
+      </c>
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
     </row>
     <row r="35" spans="1:15" ht="12" customHeight="1">
-      <c r="A35" s="55">
+      <c r="A35" s="68">
         <v>2</v>
       </c>
-      <c r="B35" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="53"/>
+      <c r="B35" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3201,13 +3215,13 @@
       <c r="O35" s="31"/>
     </row>
     <row r="36" spans="1:15" ht="12" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="54"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -3221,25 +3235,25 @@
       <c r="O36" s="32"/>
     </row>
     <row r="37" spans="1:15" ht="12" customHeight="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="65"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="64"/>
+      <c r="E37" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="56"/>
+      <c r="G37" s="58"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I37" s="119" t="s">
-        <v>53</v>
+      <c r="I37" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="J37" s="52">
         <v>5</v>
@@ -3257,13 +3271,13 @@
       <c r="O37" s="31"/>
     </row>
     <row r="38" spans="1:15" ht="12" customHeight="1">
-      <c r="A38" s="56"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="58"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="59"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3272,33 +3286,35 @@
       <c r="J38" s="52"/>
       <c r="K38" s="10">
         <f>SUM(L38:O38)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L38" s="41"/>
-      <c r="M38" s="51"/>
+      <c r="M38" s="51">
+        <v>1.25</v>
+      </c>
       <c r="N38" s="50"/>
       <c r="O38" s="32"/>
     </row>
     <row r="39" spans="1:15" ht="12" customHeight="1">
-      <c r="A39" s="55"/>
-      <c r="B39" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="63"/>
-      <c r="G39" s="65"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="64"/>
+      <c r="E39" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="56"/>
+      <c r="G39" s="58"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J39" s="8">
         <v>5</v>
@@ -3314,13 +3330,13 @@
       <c r="O39" s="31"/>
     </row>
     <row r="40" spans="1:15" ht="12" customHeight="1">
-      <c r="A40" s="56"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="58"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3329,33 +3345,35 @@
       <c r="J40" s="52"/>
       <c r="K40" s="10">
         <f>SUM(L40:M40)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L40" s="48"/>
-      <c r="M40" s="50"/>
+      <c r="M40" s="50">
+        <v>0.75</v>
+      </c>
       <c r="N40" s="32"/>
       <c r="O40" s="32"/>
     </row>
     <row r="41" spans="1:15" ht="12" customHeight="1">
-      <c r="A41" s="55"/>
-      <c r="B41" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="63"/>
-      <c r="G41" s="65"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="64"/>
+      <c r="E41" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="56"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J41" s="8">
         <v>1</v>
@@ -3372,13 +3390,13 @@
       <c r="O41" s="31"/>
     </row>
     <row r="42" spans="1:15" ht="12" customHeight="1">
-      <c r="A42" s="56"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="58"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="59"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3387,27 +3405,29 @@
       <c r="J42" s="52"/>
       <c r="K42" s="10">
         <f>SUM(L42:M42)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L42" s="48"/>
-      <c r="M42" s="50"/>
+      <c r="M42" s="50">
+        <v>0.25</v>
+      </c>
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
     </row>
     <row r="43" spans="1:15" ht="12" customHeight="1">
-      <c r="A43" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="79"/>
-      <c r="G43" s="71"/>
+      <c r="A43" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="77"/>
+      <c r="G43" s="114"/>
       <c r="H43" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -3433,15 +3453,15 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="12" customHeight="1">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="72"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -3467,19 +3487,19 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="12" customHeight="1">
-      <c r="A45" s="55">
+      <c r="A45" s="68">
         <v>1</v>
       </c>
-      <c r="B45" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="69"/>
-      <c r="G45" s="53"/>
+      <c r="B45" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="63"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="60"/>
+      <c r="G45" s="54"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -3493,13 +3513,13 @@
       <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:15" ht="12" customHeight="1">
-      <c r="A46" s="56"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="54"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="55"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -3513,25 +3533,25 @@
       <c r="O46" s="32"/>
     </row>
     <row r="47" spans="1:15" ht="12" customHeight="1">
-      <c r="A47" s="55"/>
-      <c r="B47" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="63"/>
-      <c r="G47" s="65"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="64"/>
+      <c r="E47" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="56"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J47" s="8">
         <v>2</v>
@@ -3547,13 +3567,13 @@
       <c r="O47" s="31"/>
     </row>
     <row r="48" spans="1:15" ht="12" customHeight="1">
-      <c r="A48" s="56"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="58"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="59"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -3570,25 +3590,25 @@
       <c r="O48" s="32"/>
     </row>
     <row r="49" spans="1:15" ht="12" customHeight="1">
-      <c r="A49" s="55"/>
-      <c r="B49" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="63"/>
-      <c r="G49" s="65"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="64"/>
+      <c r="E49" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="56"/>
+      <c r="G49" s="58"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J49" s="8">
         <v>3</v>
@@ -3604,13 +3624,13 @@
       <c r="O49" s="31"/>
     </row>
     <row r="50" spans="1:15" ht="12" customHeight="1">
-      <c r="A50" s="56"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="58"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="59"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -3627,19 +3647,19 @@
       <c r="O50" s="32"/>
     </row>
     <row r="51" spans="1:15" ht="12" customHeight="1">
-      <c r="A51" s="55">
+      <c r="A51" s="68">
         <v>2</v>
       </c>
-      <c r="B51" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="53"/>
+      <c r="B51" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="63"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="60"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -3653,13 +3673,13 @@
       <c r="O51" s="31"/>
     </row>
     <row r="52" spans="1:15" ht="12" customHeight="1">
-      <c r="A52" s="56"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="54"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="55"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -3673,25 +3693,25 @@
       <c r="O52" s="32"/>
     </row>
     <row r="53" spans="1:15" ht="12" customHeight="1">
-      <c r="A53" s="55"/>
-      <c r="B53" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="63"/>
-      <c r="G53" s="65"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="64"/>
+      <c r="E53" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="56"/>
+      <c r="G53" s="58"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J53" s="8">
         <v>5</v>
@@ -3707,13 +3727,13 @@
       <c r="O53" s="31"/>
     </row>
     <row r="54" spans="1:15" ht="12" customHeight="1">
-      <c r="A54" s="56"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="58"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="59"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -3730,25 +3750,25 @@
       <c r="O54" s="32"/>
     </row>
     <row r="55" spans="1:15" ht="12" customHeight="1">
-      <c r="A55" s="55"/>
-      <c r="B55" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F55" s="63"/>
-      <c r="G55" s="65"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="64"/>
+      <c r="E55" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="56"/>
+      <c r="G55" s="58"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I55" s="119" t="s">
-        <v>53</v>
+      <c r="I55" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="J55" s="8">
         <v>5</v>
@@ -3764,13 +3784,13 @@
       <c r="O55" s="31"/>
     </row>
     <row r="56" spans="1:15" ht="12" customHeight="1">
-      <c r="A56" s="56"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="58"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="59"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -3787,25 +3807,25 @@
       <c r="O56" s="32"/>
     </row>
     <row r="57" spans="1:15" ht="12" customHeight="1">
-      <c r="A57" s="55"/>
-      <c r="B57" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" s="63"/>
-      <c r="G57" s="65"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="64"/>
+      <c r="E57" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="56"/>
+      <c r="G57" s="58"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J57" s="8">
         <v>1</v>
@@ -3821,13 +3841,13 @@
       <c r="O57" s="31"/>
     </row>
     <row r="58" spans="1:15" ht="12" customHeight="1">
-      <c r="A58" s="56"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="58"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="59"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -3844,19 +3864,19 @@
       <c r="O58" s="44"/>
     </row>
     <row r="59" spans="1:15" ht="12" customHeight="1">
-      <c r="A59" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="F59" s="79"/>
-      <c r="G59" s="71"/>
+      <c r="A59" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="77"/>
+      <c r="G59" s="114"/>
       <c r="H59" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
@@ -3876,15 +3896,15 @@
       <c r="O59" s="35"/>
     </row>
     <row r="60" spans="1:15" ht="12" customHeight="1">
-      <c r="A60" s="76"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="72"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -3910,19 +3930,19 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="12" customHeight="1">
-      <c r="A61" s="55">
+      <c r="A61" s="68">
         <v>1</v>
       </c>
-      <c r="B61" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" s="69"/>
-      <c r="G61" s="53"/>
+      <c r="B61" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="63"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="60"/>
+      <c r="G61" s="54"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -3936,13 +3956,13 @@
       <c r="O61" s="31"/>
     </row>
     <row r="62" spans="1:15" ht="12" customHeight="1">
-      <c r="A62" s="56"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="54"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="55"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -3956,25 +3976,25 @@
       <c r="O62" s="32"/>
     </row>
     <row r="63" spans="1:15" ht="12" customHeight="1">
-      <c r="A63" s="55"/>
-      <c r="B63" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F63" s="63"/>
-      <c r="G63" s="65"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="64"/>
+      <c r="E63" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="56"/>
+      <c r="G63" s="58"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J63" s="8">
         <v>2</v>
@@ -3990,13 +4010,13 @@
       <c r="O63" s="31"/>
     </row>
     <row r="64" spans="1:15" ht="12" customHeight="1">
-      <c r="A64" s="56"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="58"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="59"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4013,25 +4033,25 @@
       <c r="O64" s="32"/>
     </row>
     <row r="65" spans="1:15" ht="12" customHeight="1">
-      <c r="A65" s="55"/>
-      <c r="B65" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" s="63"/>
-      <c r="G65" s="65"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="64"/>
+      <c r="E65" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="56"/>
+      <c r="G65" s="58"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J65" s="8">
         <v>2</v>
@@ -4047,13 +4067,13 @@
       <c r="O65" s="31"/>
     </row>
     <row r="66" spans="1:15" ht="12" customHeight="1">
-      <c r="A66" s="56"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="58"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="59"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4070,25 +4090,25 @@
       <c r="O66" s="32"/>
     </row>
     <row r="67" spans="1:15" ht="12" customHeight="1">
-      <c r="A67" s="55"/>
-      <c r="B67" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" s="63"/>
-      <c r="G67" s="65"/>
+      <c r="A67" s="68"/>
+      <c r="B67" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="64"/>
+      <c r="E67" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="56"/>
+      <c r="G67" s="58"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J67" s="8">
         <v>1</v>
@@ -4104,13 +4124,13 @@
       <c r="O67" s="31"/>
     </row>
     <row r="68" spans="1:15" ht="12" customHeight="1">
-      <c r="A68" s="56"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="58"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="59"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4127,19 +4147,19 @@
       <c r="O68" s="32"/>
     </row>
     <row r="69" spans="1:15" ht="12" customHeight="1">
-      <c r="A69" s="55">
+      <c r="A69" s="68">
         <v>2</v>
       </c>
-      <c r="B69" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" s="69"/>
-      <c r="G69" s="53"/>
+      <c r="B69" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="63"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="60"/>
+      <c r="G69" s="54"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4153,13 +4173,13 @@
       <c r="O69" s="31"/>
     </row>
     <row r="70" spans="1:15" ht="12" customHeight="1">
-      <c r="A70" s="56"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="54"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="55"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4173,25 +4193,25 @@
       <c r="O70" s="32"/>
     </row>
     <row r="71" spans="1:15" ht="12" customHeight="1">
-      <c r="A71" s="55"/>
-      <c r="B71" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F71" s="63"/>
-      <c r="G71" s="65"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="64"/>
+      <c r="E71" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="56"/>
+      <c r="G71" s="58"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J71" s="8">
         <v>5</v>
@@ -4207,13 +4227,13 @@
       <c r="O71" s="31"/>
     </row>
     <row r="72" spans="1:15" ht="12" customHeight="1">
-      <c r="A72" s="56"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="58"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="59"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4230,25 +4250,25 @@
       <c r="O72" s="32"/>
     </row>
     <row r="73" spans="1:15" ht="12" customHeight="1">
-      <c r="A73" s="55"/>
-      <c r="B73" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F73" s="63"/>
-      <c r="G73" s="65"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="64"/>
+      <c r="E73" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="56"/>
+      <c r="G73" s="58"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J73" s="8">
         <v>5</v>
@@ -4264,13 +4284,13 @@
       <c r="O73" s="31"/>
     </row>
     <row r="74" spans="1:15" ht="12" customHeight="1">
-      <c r="A74" s="56"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="58"/>
+      <c r="A74" s="69"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="59"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4287,25 +4307,25 @@
       <c r="O74" s="32"/>
     </row>
     <row r="75" spans="1:15" ht="12" customHeight="1">
-      <c r="A75" s="55"/>
-      <c r="B75" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F75" s="63"/>
-      <c r="G75" s="65"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="64"/>
+      <c r="E75" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="56"/>
+      <c r="G75" s="58"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="J75" s="8">
         <v>1</v>
@@ -4321,13 +4341,13 @@
       <c r="O75" s="31"/>
     </row>
     <row r="76" spans="1:15" ht="12" customHeight="1">
-      <c r="A76" s="56"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="58"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="59"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -4344,19 +4364,19 @@
       <c r="O76" s="44"/>
     </row>
     <row r="77" spans="1:15" ht="12" customHeight="1">
-      <c r="A77" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="74"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="F77" s="79"/>
-      <c r="G77" s="71"/>
+      <c r="A77" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="77"/>
+      <c r="G77" s="114"/>
       <c r="H77" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
@@ -4382,15 +4402,15 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="12" customHeight="1">
-      <c r="A78" s="76"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="72"/>
+      <c r="A78" s="74"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -4416,19 +4436,19 @@
       </c>
     </row>
     <row r="79" spans="1:15" ht="12" customHeight="1">
-      <c r="A79" s="55">
+      <c r="A79" s="68">
         <v>1</v>
       </c>
-      <c r="B79" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="53"/>
+      <c r="B79" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="60"/>
+      <c r="G79" s="54"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -4442,13 +4462,13 @@
       <c r="O79" s="31"/>
     </row>
     <row r="80" spans="1:15" ht="12" customHeight="1">
-      <c r="A80" s="56"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="54"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="55"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -4462,25 +4482,25 @@
       <c r="O80" s="32"/>
     </row>
     <row r="81" spans="1:15" ht="12" customHeight="1">
-      <c r="A81" s="55"/>
-      <c r="B81" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F81" s="63"/>
-      <c r="G81" s="65"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="64"/>
+      <c r="E81" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="56"/>
+      <c r="G81" s="58"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J81" s="8">
         <v>3</v>
@@ -4497,13 +4517,13 @@
       <c r="O81" s="31"/>
     </row>
     <row r="82" spans="1:15" ht="12" customHeight="1">
-      <c r="A82" s="56"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="58"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="59"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -4520,25 +4540,25 @@
       <c r="O82" s="32"/>
     </row>
     <row r="83" spans="1:15" ht="12" customHeight="1">
-      <c r="A83" s="55"/>
-      <c r="B83" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="63"/>
-      <c r="G83" s="65"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="64"/>
+      <c r="E83" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="56"/>
+      <c r="G83" s="58"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J83" s="8">
         <v>2</v>
@@ -4555,13 +4575,13 @@
       <c r="O83" s="31"/>
     </row>
     <row r="84" spans="1:15" ht="12" customHeight="1">
-      <c r="A84" s="56"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="58"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="59"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -4578,19 +4598,19 @@
       <c r="O84" s="32"/>
     </row>
     <row r="85" spans="1:15" ht="12" customHeight="1">
-      <c r="A85" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" s="74"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="F85" s="79"/>
-      <c r="G85" s="71"/>
+      <c r="A85" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="72"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="77"/>
+      <c r="G85" s="114"/>
       <c r="H85" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
@@ -4616,15 +4636,15 @@
       </c>
     </row>
     <row r="86" spans="1:15" ht="12" customHeight="1">
-      <c r="A86" s="76"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="72"/>
+      <c r="A86" s="74"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -4650,19 +4670,19 @@
       </c>
     </row>
     <row r="87" spans="1:15" ht="12" customHeight="1">
-      <c r="A87" s="55">
+      <c r="A87" s="68">
         <v>1</v>
       </c>
-      <c r="B87" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="F87" s="69"/>
-      <c r="G87" s="53"/>
+      <c r="B87" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="63"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="60"/>
+      <c r="G87" s="54"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -4676,13 +4696,13 @@
       <c r="O87" s="31"/>
     </row>
     <row r="88" spans="1:15" ht="12" customHeight="1">
-      <c r="A88" s="56"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="54"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="55"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -4696,25 +4716,25 @@
       <c r="O88" s="32"/>
     </row>
     <row r="89" spans="1:15" ht="12" customHeight="1">
-      <c r="A89" s="55"/>
-      <c r="B89" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F89" s="63"/>
-      <c r="G89" s="65"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="64"/>
+      <c r="E89" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="56"/>
+      <c r="G89" s="58"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J89" s="8">
         <v>3</v>
@@ -4730,13 +4750,13 @@
       <c r="O89" s="31"/>
     </row>
     <row r="90" spans="1:15" ht="12" customHeight="1">
-      <c r="A90" s="56"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="58"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="59"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -4753,25 +4773,25 @@
       <c r="O90" s="32"/>
     </row>
     <row r="91" spans="1:15" ht="12" customHeight="1">
-      <c r="A91" s="55"/>
-      <c r="B91" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F91" s="63"/>
-      <c r="G91" s="65"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="64"/>
+      <c r="E91" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="56"/>
+      <c r="G91" s="58"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J91" s="8">
         <v>1</v>
@@ -4787,13 +4807,13 @@
       <c r="O91" s="31"/>
     </row>
     <row r="92" spans="1:15" ht="12" customHeight="1">
-      <c r="A92" s="56"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="58"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="59"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -4810,19 +4830,19 @@
       <c r="O92" s="32"/>
     </row>
     <row r="93" spans="1:15" ht="12" customHeight="1">
-      <c r="A93" s="55">
+      <c r="A93" s="68">
         <v>2</v>
       </c>
-      <c r="B93" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="F93" s="69"/>
-      <c r="G93" s="53"/>
+      <c r="B93" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="63"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="60"/>
+      <c r="G93" s="54"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -4836,13 +4856,13 @@
       <c r="O93" s="31"/>
     </row>
     <row r="94" spans="1:15" ht="12" customHeight="1">
-      <c r="A94" s="56"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="54"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="55"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -4856,25 +4876,25 @@
       <c r="O94" s="32"/>
     </row>
     <row r="95" spans="1:15" ht="12" customHeight="1">
-      <c r="A95" s="55"/>
-      <c r="B95" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F95" s="63"/>
-      <c r="G95" s="65"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="64"/>
+      <c r="E95" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="56"/>
+      <c r="G95" s="58"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J95" s="8">
         <v>5</v>
@@ -4891,13 +4911,13 @@
       <c r="O95" s="31"/>
     </row>
     <row r="96" spans="1:15" ht="12" customHeight="1">
-      <c r="A96" s="56"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="58"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="59"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -4914,25 +4934,25 @@
       <c r="O96" s="32"/>
     </row>
     <row r="97" spans="1:15" ht="12" customHeight="1">
-      <c r="A97" s="55"/>
-      <c r="B97" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C97" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F97" s="63"/>
-      <c r="G97" s="65"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="64"/>
+      <c r="E97" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" s="56"/>
+      <c r="G97" s="58"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J97" s="8">
         <v>1</v>
@@ -4949,13 +4969,13 @@
       <c r="O97" s="31"/>
     </row>
     <row r="98" spans="1:15" ht="12" customHeight="1">
-      <c r="A98" s="56"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="58"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="59"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -4972,19 +4992,19 @@
       <c r="O98" s="44"/>
     </row>
     <row r="99" spans="1:15" ht="12" customHeight="1">
-      <c r="A99" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="F99" s="79"/>
-      <c r="G99" s="71"/>
+      <c r="A99" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="72"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" s="77"/>
+      <c r="G99" s="114"/>
       <c r="H99" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -5010,15 +5030,15 @@
       </c>
     </row>
     <row r="100" spans="1:15" ht="12" customHeight="1">
-      <c r="A100" s="76"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="72"/>
+      <c r="A100" s="74"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -5044,19 +5064,19 @@
       </c>
     </row>
     <row r="101" spans="1:15" ht="12" customHeight="1">
-      <c r="A101" s="55">
+      <c r="A101" s="68">
         <v>1</v>
       </c>
-      <c r="B101" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="F101" s="69"/>
-      <c r="G101" s="53"/>
+      <c r="B101" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="63"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="60"/>
+      <c r="G101" s="54"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -5070,13 +5090,13 @@
       <c r="O101" s="31"/>
     </row>
     <row r="102" spans="1:15" ht="12" customHeight="1">
-      <c r="A102" s="56"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="54"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="55"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -5090,25 +5110,25 @@
       <c r="O102" s="32"/>
     </row>
     <row r="103" spans="1:15" ht="12" customHeight="1">
-      <c r="A103" s="55"/>
-      <c r="B103" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F103" s="63"/>
-      <c r="G103" s="65"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="64"/>
+      <c r="E103" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" s="56"/>
+      <c r="G103" s="58"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J103" s="8">
         <v>5</v>
@@ -5125,13 +5145,13 @@
       <c r="O103" s="31"/>
     </row>
     <row r="104" spans="1:15" ht="12" customHeight="1">
-      <c r="A104" s="56"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="58"/>
+      <c r="A104" s="69"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="59"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5148,24 +5168,24 @@
       <c r="O104" s="32"/>
     </row>
     <row r="105" spans="1:15" ht="12" customHeight="1">
-      <c r="A105" s="55"/>
-      <c r="B105" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F105" s="63"/>
-      <c r="G105" s="65"/>
+      <c r="A105" s="68"/>
+      <c r="B105" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="64"/>
+      <c r="E105" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" s="56"/>
+      <c r="G105" s="58"/>
       <c r="H105" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J105" s="8">
         <v>5</v>
@@ -5182,13 +5202,13 @@
       <c r="O105" s="31"/>
     </row>
     <row r="106" spans="1:15" ht="12" customHeight="1">
-      <c r="A106" s="56"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="58"/>
+      <c r="A106" s="69"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="59"/>
       <c r="H106" s="52" t="s">
         <v>66</v>
       </c>
@@ -5204,19 +5224,19 @@
       <c r="O106" s="32"/>
     </row>
     <row r="107" spans="1:15" ht="12" customHeight="1">
-      <c r="A107" s="55">
+      <c r="A107" s="68">
         <v>2</v>
       </c>
-      <c r="B107" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" s="67"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="F107" s="69"/>
-      <c r="G107" s="53"/>
+      <c r="B107" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="63"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="60"/>
+      <c r="G107" s="54"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -5230,13 +5250,13 @@
       <c r="O107" s="31"/>
     </row>
     <row r="108" spans="1:15" ht="12" customHeight="1">
-      <c r="A108" s="56"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="54"/>
+      <c r="A108" s="69"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="55"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -5250,25 +5270,25 @@
       <c r="O108" s="32"/>
     </row>
     <row r="109" spans="1:15" ht="12" customHeight="1">
-      <c r="A109" s="55"/>
-      <c r="B109" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F109" s="63"/>
-      <c r="G109" s="65"/>
+      <c r="A109" s="68"/>
+      <c r="B109" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="64"/>
+      <c r="E109" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" s="56"/>
+      <c r="G109" s="58"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J109" s="8">
         <v>5</v>
@@ -5285,13 +5305,13 @@
       <c r="O109" s="31"/>
     </row>
     <row r="110" spans="1:15" ht="12" customHeight="1">
-      <c r="A110" s="56"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="58"/>
+      <c r="A110" s="69"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="65"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="59"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -5308,25 +5328,25 @@
       <c r="O110" s="32"/>
     </row>
     <row r="111" spans="1:15" ht="12" customHeight="1">
-      <c r="A111" s="55"/>
-      <c r="B111" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F111" s="63"/>
-      <c r="G111" s="65"/>
+      <c r="A111" s="68"/>
+      <c r="B111" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" s="64"/>
+      <c r="E111" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" s="56"/>
+      <c r="G111" s="58"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J111" s="8">
         <v>1</v>
@@ -5343,13 +5363,13 @@
       <c r="O111" s="31"/>
     </row>
     <row r="112" spans="1:15" ht="12" customHeight="1">
-      <c r="A112" s="56"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="58"/>
+      <c r="A112" s="69"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="65"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="59"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -5378,19 +5398,278 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -5415,278 +5694,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:O22 L25:O42 L87:O98 L101:O112 L45:O58 L61:O76 L79:O84">
@@ -5720,12 +5740,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -5909,6 +5923,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5919,36 +5939,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF8EE06F-CBE3-45D6-9E3E-BD385AA92059}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF8EE06F-CBE3-45D6-9E3E-BD385AA92059}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}"/>
 </file>
--- a/00_management/反復3/WBSガントチャート_反復3.xlsx
+++ b/00_management/反復3/WBSガントチャート_反復3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="273" documentId="11_06AD8BA54B8FBE2912825DFF753FE6726EDB0332" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AFFBEC02-8C5A-4FA3-B6A8-0C9F579F0735}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34DCB2C-178F-4427-9321-40DC6BB68DE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="8475" windowHeight="4710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復1" sheetId="1" r:id="rId1"/>
@@ -54,14 +54,12 @@
     <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$112</definedName>
     <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$112</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -96,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="67">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -538,7 +536,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1502,6 +1500,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,7 +1533,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1520,31 +1548,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1571,6 +1578,87 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1606,96 +1694,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2193,13 +2191,13 @@
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="F111" sqref="F111:F112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2214,97 +2212,97 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="83">
+      <c r="L1" s="113">
         <v>43994</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="83">
+      <c r="M1" s="114"/>
+      <c r="N1" s="113">
         <v>43997</v>
       </c>
-      <c r="O1" s="84"/>
-    </row>
-    <row r="2" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="79" t="s">
+      <c r="O1" s="114"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="80"/>
-      <c r="N2" s="81" t="s">
+      <c r="M2" s="110"/>
+      <c r="N2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="87" t="s">
+      <c r="O2" s="112"/>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="85" t="s">
+      <c r="M3" s="116"/>
+      <c r="N3" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="86"/>
-    </row>
-    <row r="4" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="90"/>
+      <c r="O3" s="116"/>
+    </row>
+    <row r="4" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2318,16 +2316,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="100" t="s">
+    <row r="5" spans="1:15" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="87"/>
       <c r="H5" s="16" t="s">
         <v>15</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>6.5</v>
       </c>
       <c r="M5" s="27">
-        <f t="shared" ref="M5:O5" si="0">SUM(M7,M23,M43,M59,M77,M85,M99)</f>
+        <f t="shared" ref="M5:N5" si="0">SUM(M7,M23,M43,M59,M77,M85,M99)</f>
         <v>15.5</v>
       </c>
       <c r="N5" s="27">
@@ -2350,14 +2348,14 @@
       </c>
       <c r="O5" s="27"/>
     </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="119"/>
+    <row r="6" spans="1:15" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2369,11 +2367,11 @@
       </c>
       <c r="L6" s="47">
         <f t="shared" ref="L6:N6" si="1">SUM(M8,M24,M44,M60,M78,M86)</f>
-        <v>3</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="M6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
@@ -2381,16 +2379,16 @@
       </c>
       <c r="O6" s="47"/>
     </row>
-    <row r="7" spans="1:15" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="108" t="s">
+    <row r="7" spans="1:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2417,14 +2415,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="112"/>
+    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="107"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2451,19 +2449,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1">
-      <c r="A9" s="68">
+    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="60" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="70" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="54"/>
@@ -2479,13 +2477,13 @@
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
     </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="57"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="55"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2499,22 +2497,22 @@
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
     </row>
-    <row r="11" spans="1:15" ht="12" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="70" t="s">
+    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="56" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2536,20 +2534,24 @@
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
     </row>
-    <row r="12" spans="1:15" ht="12" customHeight="1">
-      <c r="A12" s="69"/>
+    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="57"/>
       <c r="B12" s="59"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="59"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
       <c r="K12" s="10">
         <f>SUM(L12:O12)</f>
         <v>0.25</v>
@@ -2561,22 +2563,22 @@
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
     </row>
-    <row r="13" spans="1:15" ht="12" customHeight="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="70" t="s">
+    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="56"/>
+      <c r="B13" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="56" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="66"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2597,20 +2599,24 @@
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
     </row>
-    <row r="14" spans="1:15" ht="12" customHeight="1">
-      <c r="A14" s="69"/>
+    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="57"/>
       <c r="B14" s="59"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="59"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="I14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="8">
+        <v>5</v>
+      </c>
       <c r="K14" s="10">
         <f>SUM(L14:O14)</f>
         <v>2</v>
@@ -2622,19 +2628,19 @@
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
     </row>
-    <row r="15" spans="1:15" ht="12" customHeight="1">
-      <c r="A15" s="68">
+    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="56">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="60" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="60"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="54"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2648,13 +2654,13 @@
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
     </row>
-    <row r="16" spans="1:15" ht="12" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="57"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="55"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2668,20 +2674,22 @@
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
     </row>
-    <row r="17" spans="1:15" ht="12" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="70" t="s">
+    <row r="17" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="56"/>
+      <c r="B17" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="56" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="58"/>
+      <c r="F17" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="66"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2702,20 +2710,24 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="1:15" ht="12" customHeight="1">
-      <c r="A18" s="69"/>
+    <row r="18" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="57"/>
       <c r="B18" s="59"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="59"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="52">
+        <v>5</v>
+      </c>
       <c r="K18" s="10">
         <f>SUM(L18:O18)</f>
         <v>0.25</v>
@@ -2727,20 +2739,22 @@
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
     </row>
-    <row r="19" spans="1:15" ht="12" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="70" t="s">
+    <row r="19" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="56"/>
+      <c r="B19" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="56" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="58"/>
+      <c r="F19" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="66"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2761,20 +2775,24 @@
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
     </row>
-    <row r="20" spans="1:15" ht="12" customHeight="1">
-      <c r="A20" s="69"/>
+    <row r="20" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="57"/>
       <c r="B20" s="59"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="59"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="I20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="52">
+        <v>5</v>
+      </c>
       <c r="K20" s="10">
         <f>SUM(L20:O20)</f>
         <v>0.25</v>
@@ -2786,20 +2804,22 @@
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
     </row>
-    <row r="21" spans="1:15" ht="12" customHeight="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="70" t="s">
+    <row r="21" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="56"/>
+      <c r="B21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="56" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="58"/>
+      <c r="F21" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="66"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -2821,20 +2841,24 @@
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
     </row>
-    <row r="22" spans="1:15" ht="12" customHeight="1">
-      <c r="A22" s="69"/>
+    <row r="22" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="57"/>
       <c r="B22" s="59"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="59"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="52">
+        <v>1</v>
+      </c>
       <c r="K22" s="10">
         <f>SUM(L22:O22)</f>
         <v>0.25</v>
@@ -2846,18 +2870,18 @@
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
     </row>
-    <row r="23" spans="1:15" ht="12" customHeight="1">
-      <c r="A23" s="71" t="s">
+    <row r="23" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="77" t="s">
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="114"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="20" t="s">
         <v>15</v>
       </c>
@@ -2884,14 +2908,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="12" customHeight="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="115"/>
+    <row r="24" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -2918,19 +2942,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12" customHeight="1">
-      <c r="A25" s="68">
+    <row r="25" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="56">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="60" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="54"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -2944,13 +2968,13 @@
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
     </row>
-    <row r="26" spans="1:15" ht="12" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+    <row r="26" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="57"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="55"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -2964,20 +2988,22 @@
       <c r="N26" s="32"/>
       <c r="O26" s="32"/>
     </row>
-    <row r="27" spans="1:15" ht="12" customHeight="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="70" t="s">
+    <row r="27" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="56"/>
+      <c r="B27" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="56" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="58"/>
+      <c r="F27" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="66"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -2985,7 +3011,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="9">
-        <f>SUM(L27:O27)</f>
+        <f t="shared" ref="K27:K34" si="6">SUM(L27:O27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="30"/>
@@ -2993,13 +3019,13 @@
       <c r="N27" s="31"/>
       <c r="O27" s="31"/>
     </row>
-    <row r="28" spans="1:15" ht="12" customHeight="1">
-      <c r="A28" s="69"/>
+    <row r="28" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="57"/>
       <c r="B28" s="59"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="59"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3008,7 +3034,7 @@
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
       <c r="K28" s="10">
-        <f>SUM(L28:O28)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L28" s="48"/>
@@ -3016,20 +3042,22 @@
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
     </row>
-    <row r="29" spans="1:15" ht="12" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="70" t="s">
+    <row r="29" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="56"/>
+      <c r="B29" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="56" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="58"/>
+      <c r="F29" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="66"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3037,7 +3065,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="9">
-        <f>SUM(L29:O29)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L29" s="30"/>
@@ -3045,13 +3073,13 @@
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
     </row>
-    <row r="30" spans="1:15" ht="12" customHeight="1">
-      <c r="A30" s="69"/>
+    <row r="30" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="57"/>
       <c r="B30" s="59"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="59"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3060,7 +3088,7 @@
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
       <c r="K30" s="10">
-        <f>SUM(L30:O30)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L30" s="48"/>
@@ -3068,20 +3096,22 @@
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
     </row>
-    <row r="31" spans="1:15" ht="12" customHeight="1">
-      <c r="A31" s="68"/>
-      <c r="B31" s="70" t="s">
+    <row r="31" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="56"/>
+      <c r="B31" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="56" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="58"/>
+      <c r="F31" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="66"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3093,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="9">
-        <f>SUM(L31:O31)</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="L31" s="30"/>
@@ -3103,22 +3133,26 @@
       <c r="N31" s="31"/>
       <c r="O31" s="31"/>
     </row>
-    <row r="32" spans="1:15" ht="12" customHeight="1">
-      <c r="A32" s="69"/>
+    <row r="32" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="57"/>
       <c r="B32" s="59"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="59"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
+      <c r="I32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="52">
+        <v>1</v>
+      </c>
       <c r="K32" s="10">
-        <f>SUM(L32:O32)</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="L32" s="48"/>
@@ -3128,20 +3162,22 @@
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
     </row>
-    <row r="33" spans="1:15" ht="12" customHeight="1">
-      <c r="A33" s="68"/>
-      <c r="B33" s="70" t="s">
+    <row r="33" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="56"/>
+      <c r="B33" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="56" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="58"/>
+      <c r="F33" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="66"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3153,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="9">
-        <f>SUM(L33:O33)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="L33" s="30"/>
@@ -3163,22 +3199,26 @@
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
     </row>
-    <row r="34" spans="1:15" ht="12" customHeight="1">
-      <c r="A34" s="69"/>
+    <row r="34" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="57"/>
       <c r="B34" s="59"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="59"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
+      <c r="I34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="52">
+        <v>2</v>
+      </c>
       <c r="K34" s="10">
-        <f>SUM(L34:O34)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="L34" s="41"/>
@@ -3188,19 +3228,19 @@
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
     </row>
-    <row r="35" spans="1:15" ht="12" customHeight="1">
-      <c r="A35" s="68">
+    <row r="35" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="60" t="s">
+      <c r="C35" s="68"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="60"/>
+      <c r="F35" s="70"/>
       <c r="G35" s="54"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3214,13 +3254,13 @@
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
     </row>
-    <row r="36" spans="1:15" ht="12" customHeight="1">
-      <c r="A36" s="69"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
+    <row r="36" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="57"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
       <c r="G36" s="55"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3234,20 +3274,22 @@
       <c r="N36" s="32"/>
       <c r="O36" s="32"/>
     </row>
-    <row r="37" spans="1:15" ht="12" customHeight="1">
-      <c r="A37" s="68"/>
-      <c r="B37" s="70" t="s">
+    <row r="37" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="56"/>
+      <c r="B37" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="56" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="58"/>
+      <c r="F37" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="66"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3270,20 +3312,24 @@
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
     </row>
-    <row r="38" spans="1:15" ht="12" customHeight="1">
-      <c r="A38" s="69"/>
+    <row r="38" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="57"/>
       <c r="B38" s="59"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="59"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
+      <c r="I38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="52">
+        <v>5</v>
+      </c>
       <c r="K38" s="10">
         <f>SUM(L38:O38)</f>
         <v>1.25</v>
@@ -3295,20 +3341,22 @@
       <c r="N38" s="50"/>
       <c r="O38" s="32"/>
     </row>
-    <row r="39" spans="1:15" ht="12" customHeight="1">
-      <c r="A39" s="68"/>
-      <c r="B39" s="70" t="s">
+    <row r="39" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="56"/>
+      <c r="B39" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="56" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="58"/>
+      <c r="F39" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="66"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3329,20 +3377,24 @@
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
     </row>
-    <row r="40" spans="1:15" ht="12" customHeight="1">
-      <c r="A40" s="69"/>
+    <row r="40" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="57"/>
       <c r="B40" s="59"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="59"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
+      <c r="I40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="52">
+        <v>5</v>
+      </c>
       <c r="K40" s="10">
         <f>SUM(L40:M40)</f>
         <v>0.75</v>
@@ -3354,20 +3406,22 @@
       <c r="N40" s="32"/>
       <c r="O40" s="32"/>
     </row>
-    <row r="41" spans="1:15" ht="12" customHeight="1">
-      <c r="A41" s="68"/>
-      <c r="B41" s="70" t="s">
+    <row r="41" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="56"/>
+      <c r="B41" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="56" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="58"/>
+      <c r="F41" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="66"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3389,20 +3443,24 @@
       <c r="N41" s="31"/>
       <c r="O41" s="31"/>
     </row>
-    <row r="42" spans="1:15" ht="12" customHeight="1">
-      <c r="A42" s="69"/>
+    <row r="42" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="57"/>
       <c r="B42" s="59"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
       <c r="G42" s="59"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
+      <c r="I42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="52">
+        <v>1</v>
+      </c>
       <c r="K42" s="10">
         <f>SUM(L42:M42)</f>
         <v>0.25</v>
@@ -3414,18 +3472,18 @@
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
     </row>
-    <row r="43" spans="1:15" ht="12" customHeight="1">
-      <c r="A43" s="71" t="s">
+    <row r="43" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="77" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="114"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="72"/>
       <c r="H43" s="20" t="s">
         <v>15</v>
       </c>
@@ -3436,11 +3494,11 @@
         <v>4.75</v>
       </c>
       <c r="L43" s="35">
-        <f t="shared" ref="L43:M43" si="6">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
+        <f t="shared" ref="L43:M43" si="7">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
         <v>0</v>
       </c>
       <c r="M43" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.75</v>
       </c>
       <c r="N43" s="35">
@@ -3448,18 +3506,18 @@
         <v>0</v>
       </c>
       <c r="O43" s="35">
-        <f t="shared" ref="O43" si="7">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
+        <f t="shared" ref="O43" si="8">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="12" customHeight="1">
-      <c r="A44" s="74"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="115"/>
+    <row r="44" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="7" t="s">
         <v>16</v>
       </c>
@@ -3467,38 +3525,38 @@
       <c r="J44" s="7"/>
       <c r="K44" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=0)*K$45:K$58)</f>
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="L44" s="36">
-        <f t="shared" ref="L44:O44" si="8">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
+        <f t="shared" ref="L44:O44" si="9">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
         <v>0</v>
       </c>
       <c r="M44" s="36">
         <f>SUMPRODUCT((MOD(ROW(M$45:M$58),2)=0)*M$45:M$58)</f>
+        <v>5.45</v>
+      </c>
+      <c r="N44" s="36">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N44" s="36">
-        <f t="shared" si="8"/>
+      <c r="O44" s="36">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O44" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="12" customHeight="1">
-      <c r="A45" s="68">
+    </row>
+    <row r="45" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="56">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="60" t="s">
+      <c r="C45" s="68"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="60"/>
+      <c r="F45" s="70"/>
       <c r="G45" s="54"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3512,13 +3570,13 @@
       <c r="N45" s="31"/>
       <c r="O45" s="31"/>
     </row>
-    <row r="46" spans="1:15" ht="12" customHeight="1">
-      <c r="A46" s="69"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
+    <row r="46" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="57"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="55"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3532,20 +3590,22 @@
       <c r="N46" s="32"/>
       <c r="O46" s="32"/>
     </row>
-    <row r="47" spans="1:15" ht="12" customHeight="1">
-      <c r="A47" s="68"/>
-      <c r="B47" s="70" t="s">
+    <row r="47" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="56"/>
+      <c r="B47" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="64"/>
-      <c r="E47" s="56" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="56"/>
-      <c r="G47" s="58"/>
+      <c r="F47" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="66"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -3566,43 +3626,51 @@
       <c r="N47" s="31"/>
       <c r="O47" s="31"/>
     </row>
-    <row r="48" spans="1:15" ht="12" customHeight="1">
-      <c r="A48" s="69"/>
+    <row r="48" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="57"/>
       <c r="B48" s="59"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
       <c r="G48" s="59"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
+      <c r="I48" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" s="52">
+        <v>2</v>
+      </c>
       <c r="K48" s="10">
         <f>SUM(L48:O48)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48" s="41"/>
-      <c r="M48" s="32"/>
+      <c r="M48" s="32">
+        <v>2</v>
+      </c>
       <c r="N48" s="32"/>
       <c r="O48" s="32"/>
     </row>
-    <row r="49" spans="1:15" ht="12" customHeight="1">
-      <c r="A49" s="68"/>
-      <c r="B49" s="70" t="s">
+    <row r="49" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="56"/>
+      <c r="B49" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="56" t="s">
+      <c r="D49" s="61"/>
+      <c r="E49" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="58"/>
+      <c r="F49" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="66"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -3623,42 +3691,48 @@
       <c r="N49" s="31"/>
       <c r="O49" s="31"/>
     </row>
-    <row r="50" spans="1:15" ht="12" customHeight="1">
-      <c r="A50" s="69"/>
+    <row r="50" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="57"/>
       <c r="B50" s="59"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
       <c r="G50" s="59"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
+      <c r="I50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" s="52">
+        <v>3</v>
+      </c>
       <c r="K50" s="10">
         <f>SUM(L50:O50)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50" s="41"/>
-      <c r="M50" s="32"/>
+      <c r="M50" s="32">
+        <v>2</v>
+      </c>
       <c r="N50" s="32"/>
       <c r="O50" s="32"/>
     </row>
-    <row r="51" spans="1:15" ht="12" customHeight="1">
-      <c r="A51" s="68">
+    <row r="51" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="56">
         <v>2</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="60" t="s">
+      <c r="C51" s="68"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="60"/>
+      <c r="F51" s="70"/>
       <c r="G51" s="54"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -3672,13 +3746,13 @@
       <c r="N51" s="31"/>
       <c r="O51" s="31"/>
     </row>
-    <row r="52" spans="1:15" ht="12" customHeight="1">
-      <c r="A52" s="69"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
+    <row r="52" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="57"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
       <c r="G52" s="55"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -3692,20 +3766,22 @@
       <c r="N52" s="32"/>
       <c r="O52" s="32"/>
     </row>
-    <row r="53" spans="1:15" ht="12" customHeight="1">
-      <c r="A53" s="68"/>
-      <c r="B53" s="70" t="s">
+    <row r="53" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="56"/>
+      <c r="B53" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="56" t="s">
+      <c r="D53" s="61"/>
+      <c r="E53" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="58"/>
+      <c r="F53" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="66"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -3726,43 +3802,51 @@
       <c r="N53" s="31"/>
       <c r="O53" s="31"/>
     </row>
-    <row r="54" spans="1:15" ht="12" customHeight="1">
-      <c r="A54" s="69"/>
+    <row r="54" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="57"/>
       <c r="B54" s="59"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
       <c r="G54" s="59"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
+      <c r="I54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="52">
+        <v>5</v>
+      </c>
       <c r="K54" s="10">
         <f>SUM(L54:O54)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L54" s="41"/>
-      <c r="M54" s="32"/>
+      <c r="M54" s="32">
+        <v>0.7</v>
+      </c>
       <c r="N54" s="32"/>
       <c r="O54" s="32"/>
     </row>
-    <row r="55" spans="1:15" ht="12" customHeight="1">
-      <c r="A55" s="68"/>
-      <c r="B55" s="70" t="s">
+    <row r="55" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="56"/>
+      <c r="B55" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="56" t="s">
+      <c r="D55" s="61"/>
+      <c r="E55" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="56"/>
-      <c r="G55" s="58"/>
+      <c r="F55" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="66"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -3783,43 +3867,51 @@
       <c r="N55" s="31"/>
       <c r="O55" s="31"/>
     </row>
-    <row r="56" spans="1:15" ht="12" customHeight="1">
-      <c r="A56" s="69"/>
+    <row r="56" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="57"/>
       <c r="B56" s="59"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
       <c r="G56" s="59"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
+      <c r="I56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="52">
+        <v>5</v>
+      </c>
       <c r="K56" s="10">
         <f>SUM(L56:O56)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L56" s="41"/>
-      <c r="M56" s="32"/>
+      <c r="M56" s="32">
+        <v>0.5</v>
+      </c>
       <c r="N56" s="32"/>
       <c r="O56" s="32"/>
     </row>
-    <row r="57" spans="1:15" ht="12" customHeight="1">
-      <c r="A57" s="68"/>
-      <c r="B57" s="70" t="s">
+    <row r="57" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="56"/>
+      <c r="B57" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="64"/>
-      <c r="E57" s="56" t="s">
+      <c r="D57" s="61"/>
+      <c r="E57" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="56"/>
-      <c r="G57" s="58"/>
+      <c r="F57" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="66"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -3840,41 +3932,47 @@
       <c r="N57" s="31"/>
       <c r="O57" s="31"/>
     </row>
-    <row r="58" spans="1:15" ht="12" customHeight="1">
-      <c r="A58" s="69"/>
+    <row r="58" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="57"/>
       <c r="B58" s="59"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
       <c r="G58" s="59"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
+      <c r="I58" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J58" s="52">
+        <v>1</v>
+      </c>
       <c r="K58" s="10">
         <f>SUM(L58:O58)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L58" s="43"/>
-      <c r="M58" s="44"/>
+      <c r="M58" s="44">
+        <v>0.25</v>
+      </c>
       <c r="N58" s="44"/>
       <c r="O58" s="44"/>
     </row>
-    <row r="59" spans="1:15" ht="12" customHeight="1">
-      <c r="A59" s="71" t="s">
+    <row r="59" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="77" t="s">
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="77"/>
-      <c r="G59" s="114"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="72"/>
       <c r="H59" s="20" t="s">
         <v>15</v>
       </c>
@@ -3885,24 +3983,24 @@
         <v>6.25</v>
       </c>
       <c r="L59" s="35">
-        <f t="shared" ref="L59:N59" si="9">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
+        <f t="shared" ref="L59:M59" si="10">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
         <v>0</v>
       </c>
       <c r="M59" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.25</v>
       </c>
       <c r="N59" s="35"/>
       <c r="O59" s="35"/>
     </row>
-    <row r="60" spans="1:15" ht="12" customHeight="1">
-      <c r="A60" s="74"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="115"/>
+    <row r="60" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="77"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="73"/>
       <c r="H60" s="7" t="s">
         <v>16</v>
       </c>
@@ -3910,38 +4008,38 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
         <v>0</v>
       </c>
       <c r="M60" s="36">
-        <f t="shared" ref="M60:O60" si="10">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
+        <f t="shared" ref="M60:O60" si="11">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
+        <v>6.45</v>
+      </c>
+      <c r="N60" s="36">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N60" s="36">
-        <f t="shared" si="10"/>
+      <c r="O60" s="36">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O60" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="12" customHeight="1">
-      <c r="A61" s="68">
+    </row>
+    <row r="61" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="56">
         <v>1</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="60" t="s">
+      <c r="C61" s="68"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="60"/>
+      <c r="F61" s="70"/>
       <c r="G61" s="54"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -3955,13 +4053,13 @@
       <c r="N61" s="31"/>
       <c r="O61" s="31"/>
     </row>
-    <row r="62" spans="1:15" ht="12" customHeight="1">
-      <c r="A62" s="69"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
+    <row r="62" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="57"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
       <c r="G62" s="55"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -3975,20 +4073,22 @@
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
     </row>
-    <row r="63" spans="1:15" ht="12" customHeight="1">
-      <c r="A63" s="68"/>
-      <c r="B63" s="70" t="s">
+    <row r="63" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="56"/>
+      <c r="B63" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="64"/>
-      <c r="E63" s="56" t="s">
+      <c r="D63" s="61"/>
+      <c r="E63" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="56"/>
-      <c r="G63" s="58"/>
+      <c r="F63" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="66"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4009,43 +4109,51 @@
       <c r="N63" s="31"/>
       <c r="O63" s="31"/>
     </row>
-    <row r="64" spans="1:15" ht="12" customHeight="1">
-      <c r="A64" s="69"/>
+    <row r="64" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="57"/>
       <c r="B64" s="59"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
       <c r="G64" s="59"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
+      <c r="I64" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J64" s="52">
+        <v>2</v>
+      </c>
       <c r="K64" s="10">
         <f>SUM(L64:O64)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L64" s="41"/>
-      <c r="M64" s="32"/>
+      <c r="M64" s="32">
+        <v>2</v>
+      </c>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
     </row>
-    <row r="65" spans="1:15" ht="12" customHeight="1">
-      <c r="A65" s="68"/>
-      <c r="B65" s="70" t="s">
+    <row r="65" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="56"/>
+      <c r="B65" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="56" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="56"/>
-      <c r="G65" s="58"/>
+      <c r="F65" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="66"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4066,43 +4174,51 @@
       <c r="N65" s="31"/>
       <c r="O65" s="31"/>
     </row>
-    <row r="66" spans="1:15" ht="12" customHeight="1">
-      <c r="A66" s="69"/>
+    <row r="66" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="57"/>
       <c r="B66" s="59"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
       <c r="G66" s="59"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
+      <c r="I66" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" s="52">
+        <v>2</v>
+      </c>
       <c r="K66" s="10">
         <f>SUM(L66:O66)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66" s="41"/>
-      <c r="M66" s="32"/>
+      <c r="M66" s="32">
+        <v>2</v>
+      </c>
       <c r="N66" s="32"/>
       <c r="O66" s="32"/>
     </row>
-    <row r="67" spans="1:15" ht="12" customHeight="1">
-      <c r="A67" s="68"/>
-      <c r="B67" s="70" t="s">
+    <row r="67" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="56"/>
+      <c r="B67" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="64"/>
-      <c r="E67" s="56" t="s">
+      <c r="D67" s="61"/>
+      <c r="E67" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="56"/>
-      <c r="G67" s="58"/>
+      <c r="F67" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="66"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4123,42 +4239,48 @@
       <c r="N67" s="31"/>
       <c r="O67" s="31"/>
     </row>
-    <row r="68" spans="1:15" ht="12" customHeight="1">
-      <c r="A68" s="69"/>
+    <row r="68" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="57"/>
       <c r="B68" s="59"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
       <c r="G68" s="59"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
+      <c r="I68" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J68" s="52">
+        <v>1</v>
+      </c>
       <c r="K68" s="10">
         <f>SUM(L68:O68)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="41"/>
-      <c r="M68" s="32"/>
+      <c r="M68" s="32">
+        <v>1</v>
+      </c>
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
     </row>
-    <row r="69" spans="1:15" ht="12" customHeight="1">
-      <c r="A69" s="68">
+    <row r="69" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="56">
         <v>2</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="60" t="s">
+      <c r="C69" s="68"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="60"/>
+      <c r="F69" s="70"/>
       <c r="G69" s="54"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4172,13 +4294,13 @@
       <c r="N69" s="31"/>
       <c r="O69" s="31"/>
     </row>
-    <row r="70" spans="1:15" ht="12" customHeight="1">
-      <c r="A70" s="69"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
+    <row r="70" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="57"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
       <c r="G70" s="55"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4192,20 +4314,22 @@
       <c r="N70" s="32"/>
       <c r="O70" s="32"/>
     </row>
-    <row r="71" spans="1:15" ht="12" customHeight="1">
-      <c r="A71" s="68"/>
-      <c r="B71" s="70" t="s">
+    <row r="71" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="56"/>
+      <c r="B71" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="64"/>
-      <c r="E71" s="56" t="s">
+      <c r="D71" s="61"/>
+      <c r="E71" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="56"/>
-      <c r="G71" s="58"/>
+      <c r="F71" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="66"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4226,43 +4350,51 @@
       <c r="N71" s="31"/>
       <c r="O71" s="31"/>
     </row>
-    <row r="72" spans="1:15" ht="12" customHeight="1">
-      <c r="A72" s="69"/>
+    <row r="72" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="57"/>
       <c r="B72" s="59"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
       <c r="G72" s="59"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
+      <c r="I72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="52">
+        <v>5</v>
+      </c>
       <c r="K72" s="10">
         <f>SUM(L72:O72)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L72" s="41"/>
-      <c r="M72" s="32"/>
+      <c r="M72" s="32">
+        <v>0.7</v>
+      </c>
       <c r="N72" s="32"/>
       <c r="O72" s="32"/>
     </row>
-    <row r="73" spans="1:15" ht="12" customHeight="1">
-      <c r="A73" s="68"/>
-      <c r="B73" s="70" t="s">
+    <row r="73" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="56"/>
+      <c r="B73" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="56" t="s">
+      <c r="D73" s="61"/>
+      <c r="E73" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="56"/>
-      <c r="G73" s="58"/>
+      <c r="F73" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="66"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4283,43 +4415,51 @@
       <c r="N73" s="31"/>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:15" ht="12" customHeight="1">
-      <c r="A74" s="69"/>
+    <row r="74" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="57"/>
       <c r="B74" s="59"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
       <c r="G74" s="59"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
+      <c r="I74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="52">
+        <v>5</v>
+      </c>
       <c r="K74" s="10">
         <f>SUM(L74:O74)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L74" s="41"/>
-      <c r="M74" s="32"/>
+      <c r="M74" s="32">
+        <v>0.5</v>
+      </c>
       <c r="N74" s="32"/>
       <c r="O74" s="32"/>
     </row>
-    <row r="75" spans="1:15" ht="12" customHeight="1">
-      <c r="A75" s="68"/>
-      <c r="B75" s="70" t="s">
+    <row r="75" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="56"/>
+      <c r="B75" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="56" t="s">
+      <c r="D75" s="61"/>
+      <c r="E75" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F75" s="56"/>
-      <c r="G75" s="58"/>
+      <c r="F75" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="66"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -4340,41 +4480,47 @@
       <c r="N75" s="31"/>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:15" ht="12" customHeight="1">
-      <c r="A76" s="69"/>
+    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="57"/>
       <c r="B76" s="59"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
       <c r="G76" s="59"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
+      <c r="I76" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="52">
+        <v>1</v>
+      </c>
       <c r="K76" s="10">
         <f>SUM(L76:O76)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L76" s="43"/>
-      <c r="M76" s="44"/>
+      <c r="M76" s="31">
+        <v>0.25</v>
+      </c>
       <c r="N76" s="44"/>
       <c r="O76" s="44"/>
     </row>
-    <row r="77" spans="1:15" ht="12" customHeight="1">
-      <c r="A77" s="71" t="s">
+    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="77" t="s">
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F77" s="77"/>
-      <c r="G77" s="114"/>
+      <c r="F77" s="80"/>
+      <c r="G77" s="72"/>
       <c r="H77" s="20" t="s">
         <v>15</v>
       </c>
@@ -4385,30 +4531,30 @@
         <v>8.5</v>
       </c>
       <c r="L77" s="35">
-        <f t="shared" ref="L77:O77" si="11">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
+        <f t="shared" ref="L77:O77" si="12">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M77" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N77" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
       <c r="O77" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="12" customHeight="1">
-      <c r="A78" s="74"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="115"/>
+    <row r="78" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="77"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="7" t="s">
         <v>16</v>
       </c>
@@ -4416,10 +4562,10 @@
       <c r="J78" s="7"/>
       <c r="K78" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$79:K$84),2)=0)*K$79:K$84)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L78" s="36">
-        <f t="shared" ref="L78:O78" si="12">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
+        <f t="shared" ref="L78:O78" si="13">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M78" s="36">
@@ -4427,27 +4573,27 @@
         <v>0</v>
       </c>
       <c r="N78" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="O78" s="36">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O78" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="12" customHeight="1">
-      <c r="A79" s="68">
+    </row>
+    <row r="79" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="56">
         <v>1</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="63"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="60" t="s">
+      <c r="C79" s="68"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F79" s="60"/>
+      <c r="F79" s="70"/>
       <c r="G79" s="54"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -4461,13 +4607,13 @@
       <c r="N79" s="31"/>
       <c r="O79" s="31"/>
     </row>
-    <row r="80" spans="1:15" ht="12" customHeight="1">
-      <c r="A80" s="69"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
+    <row r="80" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="57"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
       <c r="G80" s="55"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -4481,20 +4627,22 @@
       <c r="N80" s="32"/>
       <c r="O80" s="32"/>
     </row>
-    <row r="81" spans="1:15" ht="12" customHeight="1">
-      <c r="A81" s="68"/>
-      <c r="B81" s="70" t="s">
+    <row r="81" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="56"/>
+      <c r="B81" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="64"/>
-      <c r="E81" s="56" t="s">
+      <c r="D81" s="61"/>
+      <c r="E81" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="56"/>
-      <c r="G81" s="58"/>
+      <c r="F81" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="66"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -4516,43 +4664,51 @@
       </c>
       <c r="O81" s="31"/>
     </row>
-    <row r="82" spans="1:15" ht="12" customHeight="1">
-      <c r="A82" s="69"/>
+    <row r="82" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="57"/>
       <c r="B82" s="59"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
       <c r="G82" s="59"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
+      <c r="I82" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J82" s="52">
+        <v>3</v>
+      </c>
       <c r="K82" s="10">
         <f>SUM(L82:O82)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L82" s="41"/>
       <c r="M82" s="32"/>
-      <c r="N82" s="32"/>
+      <c r="N82" s="32">
+        <v>7</v>
+      </c>
       <c r="O82" s="32"/>
     </row>
-    <row r="83" spans="1:15" ht="12" customHeight="1">
-      <c r="A83" s="68"/>
-      <c r="B83" s="70" t="s">
+    <row r="83" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="56"/>
+      <c r="B83" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D83" s="64"/>
-      <c r="E83" s="56" t="s">
+      <c r="D83" s="61"/>
+      <c r="E83" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="56"/>
-      <c r="G83" s="58"/>
+      <c r="F83" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="66"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -4574,41 +4730,47 @@
       </c>
       <c r="O83" s="31"/>
     </row>
-    <row r="84" spans="1:15" ht="12" customHeight="1">
-      <c r="A84" s="69"/>
+    <row r="84" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="57"/>
       <c r="B84" s="59"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
       <c r="G84" s="59"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
+      <c r="I84" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J84" s="52">
+        <v>2</v>
+      </c>
       <c r="K84" s="10">
         <f>SUM(L84:O84)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L84" s="41"/>
       <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
+      <c r="N84" s="32">
+        <v>3</v>
+      </c>
       <c r="O84" s="32"/>
     </row>
-    <row r="85" spans="1:15" ht="12" customHeight="1">
-      <c r="A85" s="71" t="s">
+    <row r="85" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B85" s="72"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="77" t="s">
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="77"/>
-      <c r="G85" s="114"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="72"/>
       <c r="H85" s="20" t="s">
         <v>15</v>
       </c>
@@ -4619,30 +4781,30 @@
         <v>2.5</v>
       </c>
       <c r="L85" s="35">
-        <f t="shared" ref="L85:O85" si="13">SUMPRODUCT((MOD(ROW(L$87:L$98),2)=1)*L$87:L$98)</f>
+        <f t="shared" ref="L85:O85" si="14">SUMPRODUCT((MOD(ROW(L$87:L$98),2)=1)*L$87:L$98)</f>
         <v>0</v>
       </c>
       <c r="M85" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N85" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="O85" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="12" customHeight="1">
-      <c r="A86" s="74"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="115"/>
+    <row r="86" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="77"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="7" t="s">
         <v>16</v>
       </c>
@@ -4650,38 +4812,38 @@
       <c r="J86" s="7"/>
       <c r="K86" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$87:K$98),2)=0)*K$87:K$98)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L86" s="37">
         <f>SUMPRODUCT((MOD(ROW(L$87:L$98),2)=0)*L$87:L$98)</f>
         <v>0</v>
       </c>
       <c r="M86" s="36">
-        <f t="shared" ref="M86:O86" si="14">SUMPRODUCT((MOD(ROW(M$87:M$98),2)=0)*M$87:M$98)</f>
+        <f t="shared" ref="M86:O86" si="15">SUMPRODUCT((MOD(ROW(M$87:M$98),2)=0)*M$87:M$98)</f>
         <v>0</v>
       </c>
       <c r="N86" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O86" s="36">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O86" s="36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="12" customHeight="1">
-      <c r="A87" s="68">
+    </row>
+    <row r="87" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="56">
         <v>1</v>
       </c>
-      <c r="B87" s="62" t="s">
+      <c r="B87" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="63"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="60" t="s">
+      <c r="C87" s="68"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F87" s="60"/>
+      <c r="F87" s="70"/>
       <c r="G87" s="54"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -4695,13 +4857,13 @@
       <c r="N87" s="31"/>
       <c r="O87" s="31"/>
     </row>
-    <row r="88" spans="1:15" ht="12" customHeight="1">
-      <c r="A88" s="69"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
+    <row r="88" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="57"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
       <c r="G88" s="55"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -4715,20 +4877,22 @@
       <c r="N88" s="32"/>
       <c r="O88" s="32"/>
     </row>
-    <row r="89" spans="1:15" ht="12" customHeight="1">
-      <c r="A89" s="68"/>
-      <c r="B89" s="70" t="s">
+    <row r="89" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="56"/>
+      <c r="B89" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="62" t="s">
+      <c r="C89" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D89" s="64"/>
-      <c r="E89" s="56" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F89" s="56"/>
-      <c r="G89" s="58"/>
+      <c r="F89" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="66"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -4749,43 +4913,51 @@
       </c>
       <c r="O89" s="31"/>
     </row>
-    <row r="90" spans="1:15" ht="12" customHeight="1">
-      <c r="A90" s="69"/>
+    <row r="90" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="57"/>
       <c r="B90" s="59"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="57"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
       <c r="G90" s="59"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
+      <c r="I90" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J90" s="52">
+        <v>3</v>
+      </c>
       <c r="K90" s="10">
         <f>SUM(L90:O90)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L90" s="41"/>
       <c r="M90" s="32"/>
-      <c r="N90" s="32"/>
+      <c r="N90" s="32">
+        <v>0.5</v>
+      </c>
       <c r="O90" s="32"/>
     </row>
-    <row r="91" spans="1:15" ht="12" customHeight="1">
-      <c r="A91" s="68"/>
-      <c r="B91" s="70" t="s">
+    <row r="91" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="56"/>
+      <c r="B91" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="120" t="s">
+      <c r="C91" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D91" s="64"/>
-      <c r="E91" s="56" t="s">
+      <c r="D91" s="61"/>
+      <c r="E91" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F91" s="56"/>
-      <c r="G91" s="58"/>
+      <c r="F91" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="66"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -4806,42 +4978,48 @@
       </c>
       <c r="O91" s="31"/>
     </row>
-    <row r="92" spans="1:15" ht="12" customHeight="1">
-      <c r="A92" s="69"/>
+    <row r="92" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="57"/>
       <c r="B92" s="59"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
       <c r="G92" s="59"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
+      <c r="I92" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J92" s="52">
+        <v>1</v>
+      </c>
       <c r="K92" s="10">
         <f>SUM(L92:O92)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L92" s="41"/>
       <c r="M92" s="32"/>
-      <c r="N92" s="32"/>
+      <c r="N92" s="32">
+        <v>0.25</v>
+      </c>
       <c r="O92" s="32"/>
     </row>
-    <row r="93" spans="1:15" ht="12" customHeight="1">
-      <c r="A93" s="68">
+    <row r="93" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="56">
         <v>2</v>
       </c>
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="63"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="60" t="s">
+      <c r="C93" s="68"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="60"/>
+      <c r="F93" s="70"/>
       <c r="G93" s="54"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -4855,13 +5033,13 @@
       <c r="N93" s="31"/>
       <c r="O93" s="31"/>
     </row>
-    <row r="94" spans="1:15" ht="12" customHeight="1">
-      <c r="A94" s="69"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
+    <row r="94" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="57"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
       <c r="G94" s="55"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -4875,20 +5053,22 @@
       <c r="N94" s="32"/>
       <c r="O94" s="32"/>
     </row>
-    <row r="95" spans="1:15" ht="12" customHeight="1">
-      <c r="A95" s="68"/>
-      <c r="B95" s="70" t="s">
+    <row r="95" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="56"/>
+      <c r="B95" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="62" t="s">
+      <c r="C95" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="64"/>
-      <c r="E95" s="56" t="s">
+      <c r="D95" s="61"/>
+      <c r="E95" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="56"/>
-      <c r="G95" s="58"/>
+      <c r="F95" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="66"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -4910,43 +5090,51 @@
       </c>
       <c r="O95" s="31"/>
     </row>
-    <row r="96" spans="1:15" ht="12" customHeight="1">
-      <c r="A96" s="69"/>
+    <row r="96" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="57"/>
       <c r="B96" s="59"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
       <c r="G96" s="59"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
+      <c r="I96" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" s="52">
+        <v>5</v>
+      </c>
       <c r="K96" s="10">
         <f>SUM(L96:O96)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="41"/>
       <c r="M96" s="32"/>
-      <c r="N96" s="32"/>
+      <c r="N96" s="32">
+        <v>1</v>
+      </c>
       <c r="O96" s="32"/>
     </row>
-    <row r="97" spans="1:15" ht="12" customHeight="1">
-      <c r="A97" s="68"/>
-      <c r="B97" s="70" t="s">
+    <row r="97" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="56"/>
+      <c r="B97" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="64"/>
-      <c r="E97" s="56" t="s">
+      <c r="D97" s="61"/>
+      <c r="E97" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F97" s="56"/>
-      <c r="G97" s="58"/>
+      <c r="F97" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="66"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -4968,41 +5156,47 @@
       </c>
       <c r="O97" s="31"/>
     </row>
-    <row r="98" spans="1:15" ht="12" customHeight="1">
-      <c r="A98" s="69"/>
+    <row r="98" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="57"/>
       <c r="B98" s="59"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
       <c r="G98" s="59"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
+      <c r="I98" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J98" s="52">
+        <v>1</v>
+      </c>
       <c r="K98" s="10">
         <f>SUM(L98:O98)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L98" s="43"/>
       <c r="M98" s="44"/>
-      <c r="N98" s="44"/>
+      <c r="N98" s="31">
+        <v>0.25</v>
+      </c>
       <c r="O98" s="44"/>
     </row>
-    <row r="99" spans="1:15" ht="12" customHeight="1">
-      <c r="A99" s="71" t="s">
+    <row r="99" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="72"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="77" t="s">
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="F99" s="77"/>
-      <c r="G99" s="114"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="72"/>
       <c r="H99" s="20" t="s">
         <v>15</v>
       </c>
@@ -5013,30 +5207,30 @@
         <v>3.75</v>
       </c>
       <c r="L99" s="35">
-        <f t="shared" ref="L99:O99" si="15">SUMPRODUCT((MOD(ROW(L$101:L$112),2)=1)*L$101:L$112)</f>
+        <f t="shared" ref="L99:O99" si="16">SUMPRODUCT((MOD(ROW(L$101:L$112),2)=1)*L$101:L$112)</f>
         <v>0</v>
       </c>
       <c r="M99" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N99" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.75</v>
       </c>
       <c r="O99" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="12" customHeight="1">
-      <c r="A100" s="74"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="115"/>
+    <row r="100" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="77"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="81"/>
+      <c r="F100" s="81"/>
+      <c r="G100" s="73"/>
       <c r="H100" s="7" t="s">
         <v>16</v>
       </c>
@@ -5044,38 +5238,38 @@
       <c r="J100" s="7"/>
       <c r="K100" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$101:K$112),2)=0)*K$101:K$112)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L100" s="37">
         <f>SUMPRODUCT((MOD(ROW(L$101:L$112),2)=0)*L$101:L$112)</f>
         <v>0</v>
       </c>
       <c r="M100" s="37">
-        <f t="shared" ref="M100:O100" si="16">SUMPRODUCT((MOD(ROW(M$101:M$112),2)=0)*M$101:M$112)</f>
+        <f t="shared" ref="M100:O100" si="17">SUMPRODUCT((MOD(ROW(M$101:M$112),2)=0)*M$101:M$112)</f>
         <v>0</v>
       </c>
       <c r="N100" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
+        <v>3.75</v>
+      </c>
+      <c r="O100" s="37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O100" s="37">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="12" customHeight="1">
-      <c r="A101" s="68">
+    </row>
+    <row r="101" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="56">
         <v>1</v>
       </c>
-      <c r="B101" s="62" t="s">
+      <c r="B101" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="63"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="60" t="s">
+      <c r="C101" s="68"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="F101" s="60"/>
+      <c r="F101" s="70"/>
       <c r="G101" s="54"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5089,13 +5283,13 @@
       <c r="N101" s="31"/>
       <c r="O101" s="31"/>
     </row>
-    <row r="102" spans="1:15" ht="12" customHeight="1">
-      <c r="A102" s="69"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="61"/>
+    <row r="102" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="57"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
       <c r="G102" s="55"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5109,20 +5303,22 @@
       <c r="N102" s="32"/>
       <c r="O102" s="32"/>
     </row>
-    <row r="103" spans="1:15" ht="12" customHeight="1">
-      <c r="A103" s="68"/>
-      <c r="B103" s="70" t="s">
+    <row r="103" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="56"/>
+      <c r="B103" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C103" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="64"/>
-      <c r="E103" s="56" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F103" s="56"/>
-      <c r="G103" s="58"/>
+      <c r="F103" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="66"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5144,43 +5340,51 @@
       </c>
       <c r="O103" s="31"/>
     </row>
-    <row r="104" spans="1:15" ht="12" customHeight="1">
-      <c r="A104" s="69"/>
+    <row r="104" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="57"/>
       <c r="B104" s="59"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
       <c r="G104" s="59"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I104" s="52"/>
-      <c r="J104" s="52"/>
+      <c r="I104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" s="52">
+        <v>5</v>
+      </c>
       <c r="K104" s="10">
         <f>SUM(L104:O104)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="41"/>
       <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
+      <c r="N104" s="32">
+        <v>1</v>
+      </c>
       <c r="O104" s="32"/>
     </row>
-    <row r="105" spans="1:15" ht="12" customHeight="1">
-      <c r="A105" s="68"/>
-      <c r="B105" s="70" t="s">
+    <row r="105" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="56"/>
+      <c r="B105" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D105" s="64"/>
-      <c r="E105" s="56" t="s">
+      <c r="D105" s="61"/>
+      <c r="E105" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F105" s="56"/>
-      <c r="G105" s="58"/>
+      <c r="F105" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="66"/>
       <c r="H105" s="8" t="s">
         <v>65</v>
       </c>
@@ -5201,41 +5405,47 @@
       </c>
       <c r="O105" s="31"/>
     </row>
-    <row r="106" spans="1:15" ht="12" customHeight="1">
-      <c r="A106" s="69"/>
+    <row r="106" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="57"/>
       <c r="B106" s="59"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
       <c r="G106" s="59"/>
       <c r="H106" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I106" s="52"/>
-      <c r="J106" s="52"/>
+      <c r="I106" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J106" s="52">
+        <v>5</v>
+      </c>
       <c r="K106" s="10">
         <f>SUM(L106:O106)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L106" s="41"/>
       <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
+      <c r="N106" s="32">
+        <v>1.5</v>
+      </c>
       <c r="O106" s="32"/>
     </row>
-    <row r="107" spans="1:15" ht="12" customHeight="1">
-      <c r="A107" s="68">
+    <row r="107" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="56">
         <v>2</v>
       </c>
-      <c r="B107" s="62" t="s">
+      <c r="B107" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="63"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="60" t="s">
+      <c r="C107" s="68"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="60"/>
+      <c r="F107" s="70"/>
       <c r="G107" s="54"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -5249,13 +5459,13 @@
       <c r="N107" s="31"/>
       <c r="O107" s="31"/>
     </row>
-    <row r="108" spans="1:15" ht="12" customHeight="1">
-      <c r="A108" s="69"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="61"/>
-      <c r="F108" s="61"/>
+    <row r="108" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="57"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
       <c r="G108" s="55"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -5269,20 +5479,22 @@
       <c r="N108" s="32"/>
       <c r="O108" s="32"/>
     </row>
-    <row r="109" spans="1:15" ht="12" customHeight="1">
-      <c r="A109" s="68"/>
-      <c r="B109" s="70" t="s">
+    <row r="109" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="56"/>
+      <c r="B109" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C109" s="62" t="s">
+      <c r="C109" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="64"/>
-      <c r="E109" s="56" t="s">
+      <c r="D109" s="61"/>
+      <c r="E109" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F109" s="56"/>
-      <c r="G109" s="58"/>
+      <c r="F109" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="66"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -5304,43 +5516,51 @@
       </c>
       <c r="O109" s="31"/>
     </row>
-    <row r="110" spans="1:15" ht="12" customHeight="1">
-      <c r="A110" s="69"/>
+    <row r="110" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="57"/>
       <c r="B110" s="59"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="57"/>
-      <c r="F110" s="57"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
       <c r="G110" s="59"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I110" s="52"/>
-      <c r="J110" s="52"/>
+      <c r="I110" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="52">
+        <v>5</v>
+      </c>
       <c r="K110" s="10">
         <f>SUM(L110:O110)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" s="41"/>
       <c r="M110" s="32"/>
-      <c r="N110" s="32"/>
+      <c r="N110" s="32">
+        <v>1</v>
+      </c>
       <c r="O110" s="32"/>
     </row>
-    <row r="111" spans="1:15" ht="12" customHeight="1">
-      <c r="A111" s="68"/>
-      <c r="B111" s="70" t="s">
+    <row r="111" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="56"/>
+      <c r="B111" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C111" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D111" s="64"/>
-      <c r="E111" s="56" t="s">
+      <c r="D111" s="61"/>
+      <c r="E111" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F111" s="56"/>
-      <c r="G111" s="58"/>
+      <c r="F111" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="66"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -5362,30 +5582,36 @@
       </c>
       <c r="O111" s="31"/>
     </row>
-    <row r="112" spans="1:15" ht="12" customHeight="1">
-      <c r="A112" s="69"/>
+    <row r="112" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="57"/>
       <c r="B112" s="59"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
       <c r="G112" s="59"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
+      <c r="I112" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112" s="52">
+        <v>1</v>
+      </c>
       <c r="K112" s="10">
         <f>SUM(L112:O112)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L112" s="41"/>
       <c r="M112" s="32"/>
-      <c r="N112" s="32"/>
+      <c r="N112" s="32">
+        <v>0.25</v>
+      </c>
       <c r="O112" s="32"/>
     </row>
-    <row r="113" spans="12:15">
+    <row r="113" spans="12:15" x14ac:dyDescent="0.15">
       <c r="L113" s="39"/>
       <c r="M113" s="39"/>
       <c r="N113" s="39"/>
@@ -5398,95 +5624,196 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -5511,205 +5838,104 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:D62"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L9:O22 L25:O42 L87:O98 L101:O112 L45:O58 L61:O76 L79:O84">
+  <conditionalFormatting sqref="L9:O22 L25:O42 L101:O112 L45:O58 L79:O84 L61:O76 L87:O98">
     <cfRule type="expression" dxfId="1" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
@@ -5924,12 +6150,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5938,14 +6158,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF8EE06F-CBE3-45D6-9E3E-BD385AA92059}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF8EE06F-CBE3-45D6-9E3E-BD385AA92059}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>